--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/7 CORTE DE CHEQUES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/7 CORTE DE CHEQUES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A364C01-A489-4B58-BF5C-7B3C5033A0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C087098-6C62-4060-A99B-7C0921351B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>CHEQUE</t>
   </si>
@@ -76,12 +76,6 @@
     <t>Revisión de Registros y Documentación</t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>ÚLTIMO DICIEMBRE AÑO 2023</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">MONTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      Corte de Cheques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
     <t xml:space="preserve">         Supervisor </t>
@@ -179,22 +167,30 @@
   <si>
     <t>A-7</t>
   </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte de Cheques </t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,14 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -260,19 +248,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,11 +306,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,11 +404,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -449,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,88 +431,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -887,73 +851,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-GT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1133476</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809626" y="342900"/>
-          <a:ext cx="1085850" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:endParaRPr lang="es-GT" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1345,7 +1242,7 @@
   <dimension ref="A2:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1257,9 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="42" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1378,7 +1277,7 @@
     </row>
     <row r="3" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1390,16 +1289,11 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1410,30 +1304,30 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="5"/>
+      <c r="N4" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1441,21 +1335,21 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1463,21 +1357,21 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1485,21 +1379,21 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1522,242 +1416,223 @@
     </row>
     <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="5"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="F11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <v>1000</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>1000</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="24"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="B19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="5"/>
@@ -1778,7 +1653,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="7"/>
@@ -1816,12 +1691,12 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1840,7 +1715,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1858,7 +1733,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1876,8 +1751,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="36" t="s">
-        <v>31</v>
+      <c r="E27" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1892,77 +1767,77 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="N28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="N29" s="24"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="24"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
@@ -1986,62 +1861,62 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2061,7 +1936,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2121,10 +1996,10 @@
       <c r="A41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="21"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2133,15 +2008,15 @@
       <c r="K41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="5"/>
@@ -2153,9 +2028,9 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17" t="s">
-        <v>24</v>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2182,11 +2057,15 @@
       <c r="I49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B33:O35"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B19:O20"/>
-    <mergeCell ref="B9:N9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="M10:M11"/>
